--- a/uceedWebsite/Book1.xlsx
+++ b/uceedWebsite/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anshu\python\uceed-website\venv\uceedWebsite\uceedWebsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anshu\js2\REPOS\uprac\uceedWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B51356C-E8C7-4BE6-8DB8-77B46263882D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E849571-4EF6-453D-8A52-E1A5B19CE698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2FCEB11-87B5-4372-BD6A-5147682F50C0}"/>
   </bookViews>
@@ -34,9 +34,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>What is this ?</t>
-  </si>
-  <si>
     <t>Questions</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">That is a sheep </t>
+  </si>
+  <si>
+    <t>What is this ? (2)</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,26 +415,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/uceedWebsite/Book1.xlsx
+++ b/uceedWebsite/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anshu\js2\REPOS\uprac\uceedWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E849571-4EF6-453D-8A52-E1A5B19CE698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F88609-06F9-414F-AE60-7E5270FFF344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2FCEB11-87B5-4372-BD6A-5147682F50C0}"/>
   </bookViews>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">That is a sheep </t>
   </si>
   <si>
-    <t>What is this ? (2)</t>
+    <t>What is this ? (2)(3)</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
